--- a/内部编号列表/[hack]二战版.xlsx
+++ b/内部编号列表/[hack]二战版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="198">
   <si>
     <r>
       <rPr>
@@ -34,6 +34,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>子弹编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>十六进制</t>
     </r>
   </si>
@@ -60,6 +71,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子弹名称</t>
+    </r>
+  </si>
+  <si>
     <t>00</t>
   </si>
   <si>
@@ -111,6 +133,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豌豆</t>
+    </r>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
@@ -162,6 +195,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胡萝卜</t>
+    </r>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -240,6 +284,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>菠萝</t>
+    </r>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -291,6 +346,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西瓜</t>
+    </r>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
@@ -342,6 +408,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>油桃</t>
+    </r>
+  </si>
+  <si>
     <t>05</t>
   </si>
   <si>
@@ -393,6 +470,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰西瓜</t>
+    </r>
+  </si>
+  <si>
     <t>06</t>
   </si>
   <si>
@@ -471,6 +559,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火球</t>
+    </r>
+  </si>
+  <si>
     <t>07</t>
   </si>
   <si>
@@ -546,6 +645,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灵魂</t>
+    </r>
+  </si>
+  <si>
     <t>08</t>
   </si>
   <si>
@@ -594,6 +704,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>穿刺弹</t>
+    </r>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -642,6 +763,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>炮弹</t>
+    </r>
+  </si>
+  <si>
     <t>0A</t>
   </si>
   <si>
@@ -690,6 +822,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爆米花</t>
+    </r>
+  </si>
+  <si>
     <t>0B</t>
   </si>
   <si>
@@ -774,6 +917,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米棒</t>
+    </r>
+  </si>
+  <si>
     <t>0C</t>
   </si>
   <si>
@@ -819,6 +973,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄油</t>
+    </r>
+  </si>
+  <si>
     <t>0D</t>
   </si>
   <si>
@@ -888,6 +1053,17 @@
         <charset val="134"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自爆</t>
     </r>
   </si>
   <si>
@@ -1586,7 +1762,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1614,6 +1790,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCDCDCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1951,10 +2133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1963,16 +2145,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1984,10 +2166,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2008,28 +2190,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2038,19 +2220,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2062,38 +2241,41 @@
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2124,19 +2306,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2458,10 +2646,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:I28"/>
+      <selection activeCell="K1" sqref="K1:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
@@ -2475,7 +2663,7 @@
     <col min="10" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2487,460 +2675,600 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="M2" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="1:9">
+    <row r="3" customHeight="1" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="L3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="M3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:13">
+      <c r="A15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>12</v>
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
+    <row r="16" customHeight="1" spans="1:13">
+      <c r="A16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>21</v>
+      <c r="E16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="9" t="s">
+    <row r="17" customHeight="1" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G17" s="5">
         <v>40</v>
@@ -2948,28 +3276,30 @@
       <c r="H17" s="5">
         <v>64</v>
       </c>
-      <c r="I17" s="14" t="s">
-        <v>125</v>
-      </c>
+      <c r="I17" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17"/>
     </row>
-    <row r="18" customHeight="1" spans="1:9">
+    <row r="18" customHeight="1" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G18" s="5">
         <v>41</v>
@@ -2977,28 +3307,30 @@
       <c r="H18" s="5">
         <v>65</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>131</v>
-      </c>
+      <c r="I18" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
     </row>
-    <row r="19" customHeight="1" spans="1:9">
+    <row r="19" customHeight="1" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G19" s="5">
         <v>42</v>
@@ -3006,28 +3338,30 @@
       <c r="H19" s="5">
         <v>66</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>136</v>
-      </c>
+      <c r="I19" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
     </row>
-    <row r="20" customHeight="1" spans="1:9">
+    <row r="20" customHeight="1" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G20" s="5">
         <v>43</v>
@@ -3035,28 +3369,30 @@
       <c r="H20" s="5">
         <v>67</v>
       </c>
-      <c r="I20" s="14" t="s">
-        <v>142</v>
-      </c>
+      <c r="I20" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
     </row>
-    <row r="21" customHeight="1" spans="1:9">
+    <row r="21" customHeight="1" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G21" s="5">
         <v>44</v>
@@ -3064,28 +3400,30 @@
       <c r="H21" s="5">
         <v>68</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>148</v>
-      </c>
+      <c r="I21" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21"/>
     </row>
-    <row r="22" customHeight="1" spans="1:9">
+    <row r="22" customHeight="1" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G22" s="5">
         <v>45</v>
@@ -3093,28 +3431,30 @@
       <c r="H22" s="5">
         <v>69</v>
       </c>
-      <c r="I22" s="14" t="s">
-        <v>153</v>
-      </c>
+      <c r="I22" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22"/>
     </row>
-    <row r="23" customHeight="1" spans="1:9">
+    <row r="23" customHeight="1" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G23" s="5">
         <v>46</v>
@@ -3122,28 +3462,30 @@
       <c r="H23" s="5">
         <v>70</v>
       </c>
-      <c r="I23" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="I23" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23"/>
     </row>
-    <row r="24" customHeight="1" spans="1:9">
+    <row r="24" customHeight="1" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G24" s="5">
         <v>47</v>
@@ -3151,28 +3493,30 @@
       <c r="H24" s="5">
         <v>71</v>
       </c>
-      <c r="I24" s="14" t="s">
-        <v>162</v>
-      </c>
+      <c r="I24" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
     </row>
-    <row r="25" customHeight="1" spans="1:9">
+    <row r="25" customHeight="1" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G25" s="5">
         <v>48</v>
@@ -3180,82 +3524,87 @@
       <c r="H25" s="5">
         <v>72</v>
       </c>
-      <c r="I25" s="14" t="s">
-        <v>167</v>
-      </c>
+      <c r="I25" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25"/>
     </row>
-    <row r="26" customHeight="1" spans="1:9">
+    <row r="26" customHeight="1" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>178</v>
+        <v>193</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="7:9">
       <c r="G28" s="8" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/内部编号列表/[hack]二战版.xlsx
+++ b/内部编号列表/[hack]二战版.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20414"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\PvZHB-CheatTables\内部编号列表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95864FD6-E15F-4358-84B4-4B043A42D3F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="公测I版V0.1" sheetId="1" r:id="rId1"/>
+    <sheet name="公测2版" sheetId="2" r:id="rId1"/>
+    <sheet name="公测I版V0.1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="285">
   <si>
     <r>
       <rPr>
@@ -260,7 +267,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -278,7 +285,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -535,7 +542,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -553,7 +560,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -621,7 +628,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -639,7 +646,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -867,7 +874,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>miku</t>
     </r>
@@ -893,7 +900,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -911,7 +918,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1032,7 +1039,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1050,7 +1057,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1274,7 +1281,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1292,7 +1299,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1340,7 +1347,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1358,7 +1365,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1423,7 +1430,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1441,7 +1448,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1585,19 +1592,1275 @@
   </si>
   <si>
     <t>Null</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种子包编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>十六进制</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>十进制</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豌豆下士</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坦克坚果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向日葵后勤</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒冰防空炮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幼苗</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分裂樱桃炸弹</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三叶草</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>橙子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果防卫墙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>崩溃</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>土豆地雷</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拖拽植物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胡萝卜火箭炮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填补土坑</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极寒冰蒺藜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坦克</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>太阳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老虎机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>橙子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>菠萝迫击炮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钻石</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老虎机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>近距离射手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>飞机</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买潜水僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米炮手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买奖杯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火焰菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生长素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步兵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苔藓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步兵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路障僵尸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>策反菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保护伞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摩托化步兵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>油桃爆破手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步兵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铁桶僵尸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>霜雪冰菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工兵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大型炸药</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导弹</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>荷叶</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>炸弹</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装甲步兵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>飞机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>气球僵尸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水雷</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步兵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豌豆射手僵尸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辣椒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反坦克地雷</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳跳僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>丙丁离火甲乙木</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重型榴弹炮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冲击者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>混凝土坚果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模仿者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搬运兵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海军蘑菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鱼雷坚果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>军官</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亮豆</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超级机枪</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>九头向日葵</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忧郁蘑菇</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱逐猫尾舰</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喀秋莎火箭炮</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电磁脉冲菇</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反坦克地雷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地刺王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>76-78</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4C-4E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T-34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坦克</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豌豆星</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>碉堡</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毁灭菇集群</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向日葵指挥官</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反坦克炮</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豌豆突击队</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>崩溃</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机的惊喜</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>召唤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轰炸机</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1609,151 +2872,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1761,8 +2880,36 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1817,194 +2964,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2027,255 +2988,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2327,62 +3046,36 @@
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2640,48 +3333,1207 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704E4874-A49E-4D3F-9F77-A26AE915A782}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="20"/>
+    <col min="3" max="3" width="14.25" style="20" customWidth="1"/>
+    <col min="4" max="5" width="9" style="20"/>
+    <col min="6" max="6" width="17.75" style="20" customWidth="1"/>
+    <col min="7" max="8" width="9" style="20"/>
+    <col min="9" max="9" width="18.125" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" s="2">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="2">
+        <v>40</v>
+      </c>
+      <c r="H24" s="2">
+        <v>64</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="2">
+        <v>41</v>
+      </c>
+      <c r="H25" s="2">
+        <v>65</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="2">
+        <v>42</v>
+      </c>
+      <c r="H26" s="2">
+        <v>66</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" s="2">
+        <v>43</v>
+      </c>
+      <c r="H27" s="2">
+        <v>67</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="2">
+        <v>44</v>
+      </c>
+      <c r="H28" s="2">
+        <v>68</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45</v>
+      </c>
+      <c r="H29" s="2">
+        <v>69</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" s="2">
+        <v>46</v>
+      </c>
+      <c r="H30" s="2">
+        <v>70</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="2">
+        <v>40</v>
+      </c>
+      <c r="E31" s="2">
+        <v>64</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" s="2">
+        <v>47</v>
+      </c>
+      <c r="H31" s="2">
+        <v>71</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D32" s="2">
+        <v>41</v>
+      </c>
+      <c r="E32" s="2">
+        <v>65</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" s="2">
+        <v>48</v>
+      </c>
+      <c r="H32" s="2">
+        <v>72</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" s="2">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2">
+        <v>66</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="2">
+        <v>43</v>
+      </c>
+      <c r="E34" s="2">
+        <v>67</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="2">
+        <v>44</v>
+      </c>
+      <c r="E35" s="2">
+        <v>68</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45</v>
+      </c>
+      <c r="E36" s="2">
+        <v>69</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="2">
+        <v>46</v>
+      </c>
+      <c r="E37" s="2">
+        <v>70</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="2">
+        <v>47</v>
+      </c>
+      <c r="E38" s="2">
+        <v>71</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.88888888888889" style="1"/>
-    <col min="3" max="3" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88888888888889" style="1"/>
-    <col min="6" max="6" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88888888888889" style="1"/>
-    <col min="9" max="9" width="20.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.875" style="1"/>
+    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.875" style="1"/>
+    <col min="9" max="9" width="20.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="8" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="K1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:13">
+      <c r="L1" s="19"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2719,7 +4571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:13">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2757,7 +4609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:13">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2795,7 +4647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:13">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -2833,7 +4685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:13">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -2871,7 +4723,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:13">
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -2909,7 +4761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:13">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>56</v>
       </c>
@@ -2947,7 +4799,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:13">
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
@@ -2985,7 +4837,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:13">
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -3023,7 +4875,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:13">
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
@@ -3061,7 +4913,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:13">
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>94</v>
       </c>
@@ -3099,7 +4951,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:13">
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>103</v>
       </c>
@@ -3137,7 +4989,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:13">
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>112</v>
       </c>
@@ -3175,7 +5027,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:13">
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>121</v>
       </c>
@@ -3213,7 +5065,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:13">
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>129</v>
       </c>
@@ -3251,7 +5103,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:12">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>137</v>
       </c>
@@ -3282,7 +5134,7 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" customHeight="1" spans="1:12">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>142</v>
       </c>
@@ -3313,7 +5165,7 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" customHeight="1" spans="1:12">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>104</v>
       </c>
@@ -3344,7 +5196,7 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" customHeight="1" spans="1:12">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>113</v>
       </c>
@@ -3375,7 +5227,7 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" customHeight="1" spans="1:12">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>122</v>
       </c>
@@ -3406,7 +5258,7 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" customHeight="1" spans="1:12">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>130</v>
       </c>
@@ -3437,7 +5289,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" customHeight="1" spans="1:12">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>138</v>
       </c>
@@ -3468,7 +5320,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" customHeight="1" spans="1:12">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>143</v>
       </c>
@@ -3499,7 +5351,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" customHeight="1" spans="1:12">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>148</v>
       </c>
@@ -3530,7 +5382,7 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" customHeight="1" spans="1:12">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>153</v>
       </c>
@@ -3561,7 +5413,7 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" customHeight="1" spans="1:9">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>159</v>
       </c>
@@ -3590,7 +5442,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="7:9">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G28" s="8" t="s">
         <v>195</v>
       </c>
@@ -3606,7 +5458,7 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>